--- a/VersionRecords/Version 5.1.4.1 20161207/版本Bug和特性计划及评审表v5.1.4.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.4.1 20161207/版本Bug和特性计划及评审表v5.1.4.1_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.4.1 20161207\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -203,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -573,6 +568,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,9 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -940,14 +935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1051,7 +1046,7 @@
       <c r="C2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1091,7 +1086,9 @@
       <c r="Q2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="28"/>
+      <c r="R2" s="28">
+        <v>6035</v>
+      </c>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="13"/>
@@ -4233,7 +4230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4248,28 +4245,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -4439,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
